--- a/web/Statistik/Team/Template Excel Team BPJ.xlsx
+++ b/web/Statistik/Team/Template Excel Team BPJ.xlsx
@@ -6,31 +6,32 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Gjio Godfrey Bain" r:id="rId3" sheetId="1"/>
-    <sheet name="Rizky Alfian" r:id="rId4" sheetId="2"/>
-    <sheet name="Tyrell Corbin" r:id="rId5" sheetId="3"/>
-    <sheet name="Rodmundus Ray" r:id="rId6" sheetId="4"/>
-    <sheet name="Modestus Utu. P" r:id="rId7" sheetId="5"/>
-    <sheet name="Leonardus Cahyo" r:id="rId8" sheetId="6"/>
-    <sheet name="Ichsan Satria" r:id="rId9" sheetId="7"/>
-    <sheet name="Tertius Toas Poli" r:id="rId10" sheetId="8"/>
-    <sheet name="Edo Rizki Fahminda" r:id="rId11" sheetId="9"/>
-    <sheet name="M. Alan As'adi" r:id="rId12" sheetId="10"/>
-    <sheet name="Ali Mustofa" r:id="rId13" sheetId="11"/>
-    <sheet name="Oleh Halim" r:id="rId14" sheetId="12"/>
-    <sheet name="Yanuar Dwi Priasmoro" r:id="rId15" sheetId="13"/>
-    <sheet name="Moh Saroni" r:id="rId16" sheetId="14"/>
+    <sheet name="Tertius Toas Poli" r:id="rId3" sheetId="1"/>
+    <sheet name="M. Alan As'adi" r:id="rId4" sheetId="2"/>
+    <sheet name="Ali Mustofa" r:id="rId5" sheetId="3"/>
+    <sheet name="Oleh Halim" r:id="rId6" sheetId="4"/>
+    <sheet name="Yanuar Dwi Priasmoro" r:id="rId7" sheetId="5"/>
+    <sheet name="Melkisedek Basik" r:id="rId8" sheetId="6"/>
+    <sheet name="Francisco Yogi Dasilva" r:id="rId9" sheetId="7"/>
+    <sheet name="Anthony Jaquatte Mc Donald" r:id="rId10" sheetId="8"/>
+    <sheet name="Handoyo Saputro" r:id="rId11" sheetId="9"/>
+    <sheet name="Alkristian Chandra" r:id="rId12" sheetId="10"/>
+    <sheet name="Frida Susanto" r:id="rId13" sheetId="11"/>
+    <sheet name="Adree Sukmana" r:id="rId14" sheetId="12"/>
+    <sheet name="Lamhot Simanjuntak" r:id="rId15" sheetId="13"/>
+    <sheet name="Emilio Dacre Park" r:id="rId16" sheetId="14"/>
+    <sheet name="Restu Dwi Purnomo" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="44">
   <si>
     <t>ID_Pemain</t>
   </si>
   <si>
-    <t>1</t>
+    <t>8</t>
   </si>
   <si>
     <t>Dont Delete This!</t>
@@ -117,30 +118,6 @@
     <t>PTS</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -153,7 +130,34 @@
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
   </si>
 </sst>
 </file>
@@ -1165,6 +1169,147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:AA3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="85"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="5" max="5" width="8.0" customWidth="true"/>
+    <col min="6" max="6" width="8.0" customWidth="true"/>
+    <col min="7" max="7" width="8.0" customWidth="true"/>
+    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="9" max="9" width="8.0" customWidth="true"/>
+    <col min="10" max="10" width="8.0" customWidth="true"/>
+    <col min="11" max="11" width="8.0" customWidth="true"/>
+    <col min="12" max="12" width="8.0" customWidth="true"/>
+    <col min="13" max="13" width="8.0" customWidth="true"/>
+    <col min="14" max="14" width="8.0" customWidth="true"/>
+    <col min="15" max="15" width="8.0" customWidth="true"/>
+    <col min="16" max="16" width="8.0" customWidth="true"/>
+    <col min="17" max="17" width="8.0" customWidth="true"/>
+    <col min="18" max="18" width="8.0" customWidth="true"/>
+    <col min="19" max="19" width="8.0" customWidth="true"/>
+    <col min="20" max="20" width="8.0" customWidth="true"/>
+    <col min="21" max="21" width="8.0" customWidth="true"/>
+    <col min="22" max="22" width="8.0" customWidth="true"/>
+    <col min="23" max="23" width="8.0" customWidth="true"/>
+    <col min="24" max="24" width="8.0" customWidth="true"/>
+    <col min="25" max="25" width="8.0" customWidth="true"/>
+    <col min="26" max="26" width="8.0" customWidth="true"/>
+    <col min="27" max="27" width="8.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s" s="3">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s" s="3">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="T3" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="U3" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="Z3" t="s" s="3">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:Z2"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AA3"/>
